--- a/biology/Botanique/Architecture_Bois/Architecture_Bois.xlsx
+++ b/biology/Botanique/Architecture_Bois/Architecture_Bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Architecture Bois est une revue bimestrielle français consacrée à l'architecture contemporaine en bois.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La revue Architecture Bois est créée en 2004[1]. Le siège de la rédaction s'installe à Bordeaux en 2010[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La revue Architecture Bois est créée en 2004. Le siège de la rédaction s'installe à Bordeaux en 2010.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un magazine bimestriel d’informations sur la construction et la maison en bois destiné aux professionnels mais aussi au grand public[3],[4]. Il fait partie des magazines référencés par l'organisme faîtière de la filière bois en Suisse[5].
-Le magazine fait partie de la société  Sérum Presse fondée en 2004 à Bordeaux et dirigée par Maxime Kouyoumdjian-Simonin [6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un magazine bimestriel d’informations sur la construction et la maison en bois destiné aux professionnels mais aussi au grand public,. Il fait partie des magazines référencés par l'organisme faîtière de la filière bois en Suisse.
+Le magazine fait partie de la société  Sérum Presse fondée en 2004 à Bordeaux et dirigée par Maxime Kouyoumdjian-Simonin .
 </t>
         </is>
       </c>
